--- a/Data/DAprices.xlsx
+++ b/Data/DAprices.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/s213518_dtu_dk/Documents/23 Spring/46755 Renewables in Electricity Markets/Assignment 2/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{721F68AB-5910-4A9C-B8DE-02CB8C6208D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EB3A67C-6228-4305-94D5-0165AFE951E7}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{721F68AB-5910-4A9C-B8DE-02CB8C6208D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87C9AFA8-B531-4468-8281-6ECDF932E0D1}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{126945A4-3FD4-4D39-ADE4-F336A66D7B70}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="DK2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,72 +36,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>01 10 2022 DK2</t>
-  </si>
-  <si>
-    <t>11 AUG 2022 DΚ2</t>
-  </si>
-  <si>
-    <t>12 JUN 2022 DK2</t>
-  </si>
-  <si>
-    <t>14 ΜΑΥ 2022 DK2</t>
-  </si>
-  <si>
-    <t>07 ΜΑΥ 2022 DK2</t>
-  </si>
-  <si>
-    <t>09 DEC 2022 DK2</t>
-  </si>
-  <si>
-    <t>14 MAR 2022 DK2</t>
-  </si>
-  <si>
-    <t>08 APR 2022 DK2</t>
-  </si>
-  <si>
-    <t>25 JUL 2022 DK2</t>
-  </si>
-  <si>
-    <t>20 SEP 2022 DK2</t>
-  </si>
-  <si>
-    <t>12 APR 2022 DK2</t>
-  </si>
-  <si>
-    <t>10 AUG 2022 DK2</t>
-  </si>
-  <si>
-    <t>08 JUN 2022 DK2</t>
-  </si>
-  <si>
-    <t>24 DEC 2022 DK2</t>
-  </si>
-  <si>
-    <t>16 JUL 2022 DK2</t>
-  </si>
-  <si>
-    <t>31 JAN 2022 DK2</t>
-  </si>
-  <si>
-    <t>16 FEB 2022 DK2</t>
-  </si>
-  <si>
-    <t>9/21/2022 DK2</t>
-  </si>
-  <si>
-    <t>10/2/2022 DK2</t>
-  </si>
-  <si>
-    <t>3/4/2022 DK2</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -131,9 +73,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,93 +393,77 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C504931-429A-4DCD-A8A5-7BE04519241D}">
   <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:T25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" customWidth="1"/>
-    <col min="2" max="2" width="11.6328125" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="20" width="10.6328125" customWidth="1"/>
     <col min="21" max="21" width="6.26953125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="5.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" t="s">
-        <v>16</v>
+      <c r="A1" s="1">
+        <v>44825</v>
+      </c>
+      <c r="B1" s="2">
+        <v>44571</v>
+      </c>
+      <c r="C1" s="1">
+        <v>44784</v>
+      </c>
+      <c r="D1" s="1">
+        <v>44724</v>
+      </c>
+      <c r="E1" s="1">
+        <v>44695</v>
+      </c>
+      <c r="F1" s="1">
+        <v>44688</v>
+      </c>
+      <c r="G1" s="1">
+        <v>44904</v>
+      </c>
+      <c r="H1" s="1">
+        <v>44634</v>
+      </c>
+      <c r="I1" s="1">
+        <v>44659</v>
+      </c>
+      <c r="J1" s="1">
+        <v>44767</v>
+      </c>
+      <c r="K1" s="1">
+        <v>44836</v>
+      </c>
+      <c r="L1" s="1">
+        <v>44824</v>
+      </c>
+      <c r="M1" s="1">
+        <v>44663</v>
+      </c>
+      <c r="N1" s="1">
+        <v>44783</v>
+      </c>
+      <c r="O1" s="1">
+        <v>44720</v>
+      </c>
+      <c r="P1" s="1">
+        <v>44624</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>44919</v>
+      </c>
+      <c r="R1" s="1">
+        <v>44758</v>
+      </c>
+      <c r="S1" s="1">
+        <v>44592</v>
+      </c>
+      <c r="T1" s="1">
+        <v>44608</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">

--- a/Data/DAprices.xlsx
+++ b/Data/DAprices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/s213518_dtu_dk/Documents/23 Spring/46755 Renewables in Electricity Markets/Assignment 2/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{721F68AB-5910-4A9C-B8DE-02CB8C6208D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87C9AFA8-B531-4468-8281-6ECDF932E0D1}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{D36974FD-E87E-4AF5-8C75-39C7D162EF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8D79A91-0613-4CA3-84BB-2EC3BC72F7D1}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{126945A4-3FD4-4D39-ADE4-F336A66D7B70}"/>
+    <workbookView xWindow="31020" yWindow="3090" windowWidth="21600" windowHeight="11175" xr2:uid="{126945A4-3FD4-4D39-ADE4-F336A66D7B70}"/>
   </bookViews>
   <sheets>
     <sheet name="DK2" sheetId="1" r:id="rId1"/>
@@ -35,14 +35,10 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -76,7 +72,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C504931-429A-4DCD-A8A5-7BE04519241D}">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="K10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1325,7 +1321,7 @@
         <v>148.27000000000001</v>
       </c>
       <c r="R15">
-        <v>-0.05</v>
+        <v>0</v>
       </c>
       <c r="S15">
         <v>221.52</v>
@@ -1387,7 +1383,7 @@
         <v>151.1</v>
       </c>
       <c r="R16">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="S16">
         <v>206.28</v>
@@ -1952,6 +1948,21 @@
       </c>
       <c r="T25">
         <v>16.989999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="18:18" x14ac:dyDescent="0.35">
+      <c r="R33">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="34" spans="18:18" x14ac:dyDescent="0.35">
+      <c r="R34">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="35" spans="18:18" x14ac:dyDescent="0.35">
+      <c r="R35">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Data/DAprices.xlsx
+++ b/Data/DAprices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/s213518_dtu_dk/Documents/23 Spring/46755 Renewables in Electricity Markets/Assignment 2/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{D36974FD-E87E-4AF5-8C75-39C7D162EF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8D79A91-0613-4CA3-84BB-2EC3BC72F7D1}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{D36974FD-E87E-4AF5-8C75-39C7D162EF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AEC3E13-9CCE-42D6-9E83-887CDFFF0788}"/>
   <bookViews>
-    <workbookView xWindow="31020" yWindow="3090" windowWidth="21600" windowHeight="11175" xr2:uid="{126945A4-3FD4-4D39-ADE4-F336A66D7B70}"/>
+    <workbookView xWindow="30510" yWindow="2580" windowWidth="21600" windowHeight="11175" xr2:uid="{126945A4-3FD4-4D39-ADE4-F336A66D7B70}"/>
   </bookViews>
   <sheets>
     <sheet name="DK2" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -389,8 +393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C504931-429A-4DCD-A8A5-7BE04519241D}">
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -453,7 +457,7 @@
         <v>44919</v>
       </c>
       <c r="R1" s="1">
-        <v>44758</v>
+        <v>44759</v>
       </c>
       <c r="S1" s="1">
         <v>44592</v>
@@ -515,7 +519,7 @@
         <v>81.2</v>
       </c>
       <c r="R2">
-        <v>233.84</v>
+        <v>173.8</v>
       </c>
       <c r="S2">
         <v>122.16</v>
@@ -577,7 +581,7 @@
         <v>50.4</v>
       </c>
       <c r="R3">
-        <v>215.18</v>
+        <v>240.3</v>
       </c>
       <c r="S3">
         <v>110.17</v>
@@ -639,7 +643,7 @@
         <v>50</v>
       </c>
       <c r="R4">
-        <v>183.77</v>
+        <v>200.64</v>
       </c>
       <c r="S4">
         <v>105.3</v>
@@ -701,7 +705,7 @@
         <v>33.32</v>
       </c>
       <c r="R5">
-        <v>183.79</v>
+        <v>192.24</v>
       </c>
       <c r="S5">
         <v>100</v>
@@ -763,7 +767,7 @@
         <v>36.89</v>
       </c>
       <c r="R6">
-        <v>154.72</v>
+        <v>193.81</v>
       </c>
       <c r="S6">
         <v>100.13</v>
@@ -825,7 +829,7 @@
         <v>48.48</v>
       </c>
       <c r="R7">
-        <v>1.47</v>
+        <v>190.22</v>
       </c>
       <c r="S7">
         <v>135.4</v>
@@ -887,7 +891,7 @@
         <v>57.53</v>
       </c>
       <c r="R8">
-        <v>1.39</v>
+        <v>193.8</v>
       </c>
       <c r="S8">
         <v>185.14</v>
@@ -949,7 +953,7 @@
         <v>98.2</v>
       </c>
       <c r="R9">
-        <v>1.41</v>
+        <v>189.55</v>
       </c>
       <c r="S9">
         <v>240</v>
@@ -1011,7 +1015,7 @@
         <v>122.2</v>
       </c>
       <c r="R10">
-        <v>1.43</v>
+        <v>189.51</v>
       </c>
       <c r="S10">
         <v>248.92</v>
@@ -1073,7 +1077,7 @@
         <v>145.87</v>
       </c>
       <c r="R11">
-        <v>1.48</v>
+        <v>164</v>
       </c>
       <c r="S11">
         <v>251.92</v>
@@ -1135,7 +1139,7 @@
         <v>153</v>
       </c>
       <c r="R12">
-        <v>1.5</v>
+        <v>115.77</v>
       </c>
       <c r="S12">
         <v>248.08</v>
@@ -1197,7 +1201,7 @@
         <v>145.02000000000001</v>
       </c>
       <c r="R13">
-        <v>1.07</v>
+        <v>110.21</v>
       </c>
       <c r="S13">
         <v>243.42</v>
@@ -1259,7 +1263,7 @@
         <v>138.6</v>
       </c>
       <c r="R14">
-        <v>7.0000000000000007E-2</v>
+        <v>87.59</v>
       </c>
       <c r="S14">
         <v>238.11</v>
@@ -1321,7 +1325,7 @@
         <v>148.27000000000001</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>72.92</v>
       </c>
       <c r="S15">
         <v>221.52</v>
@@ -1383,7 +1387,7 @@
         <v>151.1</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>40.020000000000003</v>
       </c>
       <c r="S16">
         <v>206.28</v>
@@ -1445,7 +1449,7 @@
         <v>160.33000000000001</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>83.42</v>
       </c>
       <c r="S17">
         <v>191.75</v>
@@ -1507,7 +1511,7 @@
         <v>163.05000000000001</v>
       </c>
       <c r="R18">
-        <v>1.03</v>
+        <v>69.069999999999993</v>
       </c>
       <c r="S18">
         <v>193.54</v>
@@ -1569,7 +1573,7 @@
         <v>166.4</v>
       </c>
       <c r="R19">
-        <v>18.39</v>
+        <v>200.89</v>
       </c>
       <c r="S19">
         <v>240.67</v>
@@ -1631,7 +1635,7 @@
         <v>149.68</v>
       </c>
       <c r="R20">
-        <v>143.75</v>
+        <v>344.42</v>
       </c>
       <c r="S20">
         <v>253.93</v>
@@ -1693,7 +1697,7 @@
         <v>138.79</v>
       </c>
       <c r="R21">
-        <v>250.22</v>
+        <v>410.26</v>
       </c>
       <c r="S21">
         <v>240.4</v>
@@ -1755,7 +1759,7 @@
         <v>129.66999999999999</v>
       </c>
       <c r="R22">
-        <v>233.83</v>
+        <v>405.44</v>
       </c>
       <c r="S22">
         <v>231.59</v>
@@ -1817,7 +1821,7 @@
         <v>120</v>
       </c>
       <c r="R23">
-        <v>286.42</v>
+        <v>434.95</v>
       </c>
       <c r="S23">
         <v>212.96</v>
@@ -1879,7 +1883,7 @@
         <v>116.7</v>
       </c>
       <c r="R24">
-        <v>69.03</v>
+        <v>405.69</v>
       </c>
       <c r="S24">
         <v>201.96</v>
@@ -1941,7 +1945,7 @@
         <v>110.78</v>
       </c>
       <c r="R25">
-        <v>289.69</v>
+        <v>397.34</v>
       </c>
       <c r="S25">
         <v>161.51</v>
@@ -1967,5 +1971,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/DAprices.xlsx
+++ b/Data/DAprices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/s213518_dtu_dk/Documents/23 Spring/46755 Renewables in Electricity Markets/Assignment 2/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{D36974FD-E87E-4AF5-8C75-39C7D162EF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AEC3E13-9CCE-42D6-9E83-887CDFFF0788}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{D36974FD-E87E-4AF5-8C75-39C7D162EF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B77DB2C3-BC1A-4607-B77E-FCB9C7F28060}"/>
   <bookViews>
-    <workbookView xWindow="30510" yWindow="2580" windowWidth="21600" windowHeight="11175" xr2:uid="{126945A4-3FD4-4D39-ADE4-F336A66D7B70}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{126945A4-3FD4-4D39-ADE4-F336A66D7B70}"/>
   </bookViews>
   <sheets>
     <sheet name="DK2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,80 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>00-01</t>
+  </si>
+  <si>
+    <t>01-02</t>
+  </si>
+  <si>
+    <t>02-03</t>
+  </si>
+  <si>
+    <t>03-04</t>
+  </si>
+  <si>
+    <t>04-05</t>
+  </si>
+  <si>
+    <t>05-06</t>
+  </si>
+  <si>
+    <t>06-07</t>
+  </si>
+  <si>
+    <t>07-08</t>
+  </si>
+  <si>
+    <t>08-09</t>
+  </si>
+  <si>
+    <t>09-10</t>
+  </si>
+  <si>
+    <t>10-11</t>
+  </si>
+  <si>
+    <t>11-12</t>
+  </si>
+  <si>
+    <t>12-13</t>
+  </si>
+  <si>
+    <t>14-15</t>
+  </si>
+  <si>
+    <t>13-14</t>
+  </si>
+  <si>
+    <t>15-16</t>
+  </si>
+  <si>
+    <t>16-17</t>
+  </si>
+  <si>
+    <t>17-18</t>
+  </si>
+  <si>
+    <t>18-19</t>
+  </si>
+  <si>
+    <t>19-20</t>
+  </si>
+  <si>
+    <t>20-21</t>
+  </si>
+  <si>
+    <t>21-22</t>
+  </si>
+  <si>
+    <t>22-23</t>
+  </si>
+  <si>
+    <t>23-24</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -73,10 +146,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,1581 +465,1653 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C504931-429A-4DCD-A8A5-7BE04519241D}">
-  <dimension ref="A1:T35"/>
+  <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+    <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="20" width="10.6328125" customWidth="1"/>
-    <col min="21" max="21" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="21" width="10.6328125" customWidth="1"/>
+    <col min="22" max="22" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1" s="1">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B1" s="1">
         <v>44825</v>
       </c>
-      <c r="B1" s="2">
+      <c r="C1" s="2">
         <v>44571</v>
       </c>
-      <c r="C1" s="1">
+      <c r="D1" s="1">
         <v>44784</v>
       </c>
-      <c r="D1" s="1">
+      <c r="E1" s="1">
         <v>44724</v>
       </c>
-      <c r="E1" s="1">
+      <c r="F1" s="1">
         <v>44695</v>
       </c>
-      <c r="F1" s="1">
+      <c r="G1" s="1">
         <v>44688</v>
       </c>
-      <c r="G1" s="1">
+      <c r="H1" s="1">
         <v>44904</v>
       </c>
-      <c r="H1" s="1">
+      <c r="I1" s="1">
         <v>44634</v>
       </c>
-      <c r="I1" s="1">
+      <c r="J1" s="1">
         <v>44659</v>
       </c>
-      <c r="J1" s="1">
+      <c r="K1" s="1">
         <v>44767</v>
       </c>
-      <c r="K1" s="1">
+      <c r="L1" s="1">
         <v>44836</v>
       </c>
-      <c r="L1" s="1">
+      <c r="M1" s="1">
         <v>44824</v>
       </c>
-      <c r="M1" s="1">
+      <c r="N1" s="1">
         <v>44663</v>
       </c>
-      <c r="N1" s="1">
+      <c r="O1" s="1">
         <v>44783</v>
       </c>
-      <c r="O1" s="1">
+      <c r="P1" s="1">
         <v>44720</v>
       </c>
-      <c r="P1" s="1">
+      <c r="Q1" s="1">
         <v>44624</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="R1" s="1">
         <v>44919</v>
       </c>
-      <c r="R1" s="1">
+      <c r="S1" s="1">
         <v>44759</v>
       </c>
-      <c r="S1" s="1">
+      <c r="T1" s="1">
         <v>44592</v>
       </c>
-      <c r="T1" s="1">
+      <c r="U1" s="1">
         <v>44608</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>310.3</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>64.41</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>309.92</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>195</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>18.21</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>210.54</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>325.99</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>44.65</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>14.33</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>198.11</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>64.540000000000006</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>261.77</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>192.9</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>297.01</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>185.05</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>351.07</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>81.2</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>173.8</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>122.16</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>13.99</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>299.58</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>63.59</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>300.02999999999997</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>164.11</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>11.76</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>206.01</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>299.07</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>42.56</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>8.42</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>235.12</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>64.040000000000006</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>260.10000000000002</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>188.71</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>286.98</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>168.95</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>346.6</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>50.4</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>240.3</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>110.17</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>14.17</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A4">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
         <v>299.54000000000002</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>50</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>310</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>153.86000000000001</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>10.64</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>206.11</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>293.01</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>48.99</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>2.11</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>198.22</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>58.24</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>275.39</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>184.13</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>298.70999999999998</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>165.1</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>329.4</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>50</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>200.64</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>105.3</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>14.67</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A5">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>299.58</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>21.48</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>306.3</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>145.46</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>11.02</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>200.01</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>289.23</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>175.76</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>2.4700000000000002</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>179.36</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>61.95</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>262.47000000000003</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>183</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>285.60000000000002</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>162.96</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>304.05</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>33.32</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>192.24</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>100</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>15.42</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A6">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
         <v>297.27999999999997</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>16.91</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>312</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>144.97999999999999</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>10.45</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>199.5</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>294.61</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>173.75</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>8.7899999999999991</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>168.27</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>59.19</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>260.10000000000002</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>185.55</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>293.99</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>164.92</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>315</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>36.89</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>193.81</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>100.13</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>19.11</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A7">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
         <v>340.94</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>15.03</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>347.06</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>131.62</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>8.48</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>199.69</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>310.58999999999997</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>126.29</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>19.850000000000001</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>155.69</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>59.53</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>278.3</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>191.53</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>297.74</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>175</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>349.07</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>48.48</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>190.22</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>135.4</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A8">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <v>427.01</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>15.02</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>406.65</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>120.32</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>7.85</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>201.78</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>358.77</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>202.76</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>49.34</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>36.31</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>59.38</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>375</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>229.54</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>343.67</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>197.42</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>398.6</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>57.53</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>193.8</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>185.14</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>88.97</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A9">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
         <v>534.75</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>23.84</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>419.97</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>116.35</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>10.130000000000001</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>207.1</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>455.38</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>222.08</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>92.44</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>179.28</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>60.03</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>433</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>268.77999999999997</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>392.98</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>213.93</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>410</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>98.2</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>189.55</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>240</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>101.05</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A10">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
         <v>527.71</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>45.02</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>414.9</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>97.36</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>10.35</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>211.83</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>474.29</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>236.44</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>95.87</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>179.35</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>85.03</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>440.76</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>260.33</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>395.51</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>215.01</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>410.05</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>122.2</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>189.51</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>248.92</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>105.09</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A11">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
         <v>427.1</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>73.05</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>397.16</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>80.83</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>10.06</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>208.57</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>474.7</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>219.15</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>84.91</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>179.39</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>92</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>401.65</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>219.02</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>356.26</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>205.29</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>385.16</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>145.87</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>164</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>251.92</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>115.34</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A12">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
         <v>360.12</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>109.85</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>355.1</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>74.37</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>8.92</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>194.17</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>471.33</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>214.47</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>81.849999999999994</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>198.15</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>74.150000000000006</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>364.15</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>182.51</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>302.89999999999998</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>191</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>362.95</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>153</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>115.77</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>248.08</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>122.09</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A13">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
         <v>321.62</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>106.77</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>313.97000000000003</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>48.89</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>9.7100000000000009</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>190.67</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>484.16</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>244.48</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>84.42</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>198.15</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>62.08</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>344.3</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>172.32</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>284.89999999999998</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>183.58</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>349.78</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>145.02000000000001</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>110.21</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>243.42</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>121.55</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A14">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
         <v>298.37</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>90</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>298.97000000000003</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>19.71</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>9.76</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>186.55</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>481.1</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>214.46</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>64.260000000000005</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>161.03</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>57.47</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>318.48</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>136.12</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>274.76</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>180.58</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>310.69</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>138.6</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>87.59</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>238.11</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>118.22</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A15">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
         <v>302.26</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>74.040000000000006</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>269.86</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>5.0199999999999996</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>7.28</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>174.37</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>470</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>214</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>41.68</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>161.06</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>56.37</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>306.77999999999997</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>110.02</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>253</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>174.43</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>292.16000000000003</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>148.27000000000001</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>72.92</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>221.52</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>108.73</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A16">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
         <v>311.38</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>66.16</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>267.86</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>2</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>6.13</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>166.7</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>476.44</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>207.99</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>25.95</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>222.45</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>64.55</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>308.31</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>100.01</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>253.96</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>176.43</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>307.43</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>151.1</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>40.020000000000003</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>206.28</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>101.99</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A17">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
         <v>331.88</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>66.900000000000006</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>294</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>9.9499999999999993</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>6.13</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>159.16999999999999</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>473.91</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>252.85</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>34.9</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>191.57</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>67.010000000000005</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>325.61</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>118.14</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>272.33999999999997</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>178.99</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>329.95</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>160.33000000000001</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>83.42</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>191.75</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>97.57</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A18">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
         <v>364.32</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>69.819999999999993</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>334.8</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>31.55</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>6.54</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>168.22</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>474.88</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>241.34</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>30.56</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>217.77</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>91.36</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>355.69</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>139.9</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>303.10000000000002</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>181.73</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>355.77</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>163.05000000000001</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>69.069999999999993</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>193.54</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>99.11</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A19">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
         <v>406.74</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>137.80000000000001</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>401.31</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>85.33</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>10.36</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>185.3</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>507.91</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>346.5</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>100.16</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>266.29000000000002</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>192.05</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>420.7</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>179.4</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>353</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>199.66</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>380.94</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>166.4</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>200.89</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>240.67</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>110.76</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A20">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
         <v>470</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>169.32</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>450</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>159.94999999999999</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>185.1</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>201.62</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>477.37</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>390.01</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>102.78</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>322.36</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>280</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>469.05</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>215.47</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>409.93</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>209.69</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>410</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>149.68</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>344.42</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>253.93</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>110.61</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
         <v>574.51</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>195.77</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>539.9</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>185.31</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>225</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>214.24</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>451.51</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>435.42</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>173.62</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>370.9</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>311.72000000000003</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>580.61</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>194.95</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>449</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>227.2</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>410</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>138.79</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>410.26</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>240.4</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>105.05</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A22">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
         <v>490.53</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>180.27</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>534.75</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>205.98</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>240.04</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>211.96</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>440</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>365.26</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>176.48</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>373.24</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>289.98</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>508.1</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>200.03</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>454.73</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>212.36</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>400.08</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>129.66999999999999</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>405.44</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>231.59</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>78.739999999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A23">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
         <v>403.66</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>144.9</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>446</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>178.44</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>241.87</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>211.85</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>376</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>322.7</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>177.09</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>371.24</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>230.47</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>429.9</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>189.08</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>420</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>211.98</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>381.83</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>120</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>434.95</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>212.96</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>50.15</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A24">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
         <v>370</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>110.29</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>414.99</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>176.71</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>239</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>211.55</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>338.04</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>300.73</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>40</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>373.52</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>162.69999999999999</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>388.2</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>173.2</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>406.84</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>211</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>359.07</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>116.7</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>405.69</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>201.96</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>42.48</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
         <v>349.39</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>77.45</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>390</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>174.18</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>224.15</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>206</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>316.22000000000003</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>261.86</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>20.64</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>161.1</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>150.91999999999999</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>353.78</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>109.95</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>355.01</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>176.09</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>361.01</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>110.78</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>397.34</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>161.51</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>16.989999999999998</v>
       </c>
     </row>
-    <row r="33" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R33">
+    <row r="33" spans="19:19" x14ac:dyDescent="0.35">
+      <c r="S33">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="34" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R34">
+    <row r="34" spans="19:19" x14ac:dyDescent="0.35">
+      <c r="S34">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="35" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R35">
+    <row r="35" spans="19:19" x14ac:dyDescent="0.35">
+      <c r="S35">
         <v>0</v>
       </c>
     </row>
